--- a/CRMTelecomProject/src/main/java/com/TestData/CRM Credential.xlsx
+++ b/CRMTelecomProject/src/main/java/com/TestData/CRM Credential.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0F6F94C8-4E43-44C1-AC88-DDA7B4599012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A392306A-35CB-4DF2-887D-0093272D8ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9A16DF2D-FCEE-47EC-8348-93CFED6DFD64}"/>
   </bookViews>
@@ -16,20 +16,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>username</t>
   </si>
@@ -389,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6119469-AC4B-4FF3-9541-E1986F87FC9F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,6 +409,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CRMTelecomProject/src/main/java/com/TestData/CRM Credential.xlsx
+++ b/CRMTelecomProject/src/main/java/com/TestData/CRM Credential.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A392306A-35CB-4DF2-887D-0093272D8ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C019DBE7-C956-425B-98E5-1299AD796098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9A16DF2D-FCEE-47EC-8348-93CFED6DFD64}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -31,15 +31,26 @@
   <si>
     <t>will</t>
   </si>
+  <si>
+    <t>Saroj@123</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -62,13 +73,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -381,16 +395,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6119469-AC4B-4FF3-9541-E1986F87FC9F}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -417,7 +431,18 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9881160532</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{65EFC319-46D2-4920-A63C-00B1803C61FD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>